--- a/KM_test/src/zeitplan/Zeitplan.xlsx
+++ b/KM_test/src/zeitplan/Zeitplan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2520" windowWidth="19200" windowHeight="8775"/>
@@ -11,8 +11,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -73,20 +72,20 @@
     <t>Main Menu &amp;Pathfinding</t>
   </si>
   <si>
-    <t>Gebäudestrukturen &amp; Handeln</t>
-  </si>
-  <si>
     <t>Technologie und Ausrüstungssysteme Baumenü Sounds</t>
+  </si>
+  <si>
+    <t>Gebäudestrukturen &amp; Handeln &amp; Bilder für Resourcepacks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +405,9 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -438,9 +440,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -467,11 +466,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -545,6 +549,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -579,6 +584,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -754,14 +760,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="162.85546875" customWidth="1"/>
@@ -770,7 +776,7 @@
     <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -781,7 +787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="9">
         <v>42150</v>
       </c>
@@ -792,7 +798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <f>B3+1+F10</f>
         <v>42151</v>
@@ -804,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <f t="shared" ref="B5:B44" si="0">B4+1+F11</f>
         <v>42152</v>
@@ -816,39 +822,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <f t="shared" si="0"/>
         <v>42153</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <f t="shared" si="0"/>
         <v>42154</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <f t="shared" si="0"/>
         <v>42155</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>42156</v>
@@ -856,19 +862,19 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>42157</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>19</v>
+      <c r="C10" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>13</v>
@@ -882,21 +888,21 @@
         <v>Tage</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>42158</v>
       </c>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <f t="shared" si="0"/>
         <v>42159</v>
       </c>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <f t="shared" si="0"/>
         <v>42160</v>
@@ -905,7 +911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <f t="shared" si="0"/>
         <v>42161</v>
@@ -914,65 +920,65 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <f t="shared" si="0"/>
         <v>42162</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <f t="shared" si="0"/>
         <v>42163</v>
       </c>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <f t="shared" si="0"/>
         <v>42164</v>
       </c>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <f t="shared" si="0"/>
         <v>42165</v>
       </c>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <f t="shared" si="0"/>
         <v>42166</v>
       </c>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <f t="shared" si="0"/>
         <v>42167</v>
       </c>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <f t="shared" si="0"/>
         <v>42168</v>
       </c>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="2:3">
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <f t="shared" si="0"/>
         <v>42169</v>
       </c>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="2:3">
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
         <f t="shared" si="0"/>
         <v>42170</v>
@@ -981,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <f t="shared" si="0"/>
         <v>42171</v>
@@ -990,147 +996,147 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <f t="shared" si="0"/>
         <v>42172</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <f t="shared" si="0"/>
         <v>42173</v>
       </c>
-      <c r="C26" s="17"/>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <f t="shared" si="0"/>
         <v>42174</v>
       </c>
-      <c r="C27" s="17"/>
-    </row>
-    <row r="28" spans="2:3">
+      <c r="C27" s="18"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <f t="shared" si="0"/>
         <v>42175</v>
       </c>
-      <c r="C28" s="17"/>
-    </row>
-    <row r="29" spans="2:3">
+      <c r="C28" s="18"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
         <f t="shared" si="0"/>
         <v>42176</v>
       </c>
-      <c r="C29" s="17"/>
-    </row>
-    <row r="30" spans="2:3">
+      <c r="C29" s="18"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <f t="shared" si="0"/>
         <v>42177</v>
       </c>
-      <c r="C30" s="17"/>
-    </row>
-    <row r="31" spans="2:3">
+      <c r="C30" s="18"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <f t="shared" si="0"/>
         <v>42178</v>
       </c>
-      <c r="C31" s="17"/>
-    </row>
-    <row r="32" spans="2:3">
+      <c r="C31" s="18"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <f t="shared" si="0"/>
         <v>42179</v>
       </c>
-      <c r="C32" s="17"/>
-    </row>
-    <row r="33" spans="2:3">
+      <c r="C32" s="18"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <f t="shared" si="0"/>
         <v>42180</v>
       </c>
-      <c r="C33" s="17"/>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
         <f t="shared" si="0"/>
         <v>42181</v>
       </c>
-      <c r="C34" s="17"/>
-    </row>
-    <row r="35" spans="2:3">
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="9">
         <f t="shared" si="0"/>
         <v>42182</v>
       </c>
-      <c r="C35" s="17"/>
-    </row>
-    <row r="36" spans="2:3">
+      <c r="C35" s="18"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
         <f t="shared" si="0"/>
         <v>42183</v>
       </c>
-      <c r="C36" s="17"/>
-    </row>
-    <row r="37" spans="2:3">
+      <c r="C36" s="18"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="9">
         <f t="shared" si="0"/>
         <v>42184</v>
       </c>
-      <c r="C37" s="17"/>
-    </row>
-    <row r="38" spans="2:3">
+      <c r="C37" s="18"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
         <f t="shared" si="0"/>
         <v>42185</v>
       </c>
-      <c r="C38" s="17"/>
-    </row>
-    <row r="39" spans="2:3">
+      <c r="C38" s="18"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="9">
         <f t="shared" si="0"/>
         <v>42186</v>
       </c>
-      <c r="C39" s="17"/>
-    </row>
-    <row r="40" spans="2:3">
+      <c r="C39" s="18"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
         <f t="shared" si="0"/>
         <v>42187</v>
       </c>
-      <c r="C40" s="17"/>
-    </row>
-    <row r="41" spans="2:3">
+      <c r="C40" s="18"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="9">
         <f t="shared" si="0"/>
         <v>42188</v>
       </c>
-      <c r="C41" s="17"/>
-    </row>
-    <row r="42" spans="2:3">
+      <c r="C41" s="18"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
         <f t="shared" si="0"/>
         <v>42189</v>
       </c>
-      <c r="C42" s="17"/>
-    </row>
-    <row r="43" spans="2:3">
+      <c r="C42" s="18"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
         <f t="shared" si="0"/>
         <v>42190</v>
       </c>
-      <c r="C43" s="18"/>
-    </row>
-    <row r="44" spans="2:3" ht="92.25">
+      <c r="C43" s="19"/>
+    </row>
+    <row r="44" spans="2:3" ht="92.25" x14ac:dyDescent="0.25">
       <c r="B44" s="10">
         <f t="shared" si="0"/>
         <v>42191</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1156,24 +1162,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KM_test/src/zeitplan/Zeitplan.xlsx
+++ b/KM_test/src/zeitplan/Zeitplan.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19200" windowHeight="8775"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21315" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Truppen &amp; GUI Probleme behoben</t>
   </si>
@@ -27,30 +27,12 @@
     <t>Hauptklassen aufräumen</t>
   </si>
   <si>
-    <t>Funktionenen der Gebäude</t>
-  </si>
-  <si>
-    <t>Richard: Pathfinding &amp; Matthias: Balancing &amp; Julian: Bug-Fixing</t>
-  </si>
-  <si>
-    <t>Richard: KI &amp; Matthias + Julian: Balancing, Gebäudestrukturen, Bug Fixing, Minimap, Handelsrouten, Hafen, Rekrutieren + Kampfsysteme überarbeiten, Flächenschaden implementieren</t>
-  </si>
-  <si>
-    <t>Beta Phase</t>
-  </si>
-  <si>
     <t>Deadline</t>
   </si>
   <si>
-    <t>Verbesserungen &amp; Balancing</t>
-  </si>
-  <si>
     <t>Test Phase &amp; Zeitpuffer</t>
   </si>
   <si>
-    <t>Prealphatests &amp; Überarbeitung</t>
-  </si>
-  <si>
     <t>ja</t>
   </si>
   <si>
@@ -72,20 +54,56 @@
     <t>Main Menu &amp;Pathfinding</t>
   </si>
   <si>
-    <t>Technologie und Ausrüstungssysteme Baumenü Sounds</t>
-  </si>
-  <si>
-    <t>Gebäudestrukturen &amp; Handeln &amp; Bilder für Resourcepacks</t>
+    <t>Pathfinding</t>
+  </si>
+  <si>
+    <t>Save Instances &amp; Datenbank</t>
+  </si>
+  <si>
+    <t>Worldgen Res</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>Gebäudestrukturen</t>
+  </si>
+  <si>
+    <t>Funktionen der Gebäude</t>
+  </si>
+  <si>
+    <t>Funktionen der Gebäude || Technologie</t>
+  </si>
+  <si>
+    <t>Technologie|| Ausrüstung</t>
+  </si>
+  <si>
+    <t>KI, Balancing, Gebäudestrukturen, Bug Fixing, Minimap, Handelsrouten, Hafen, Rekrutieren + Kampfsysteme überarbeiten, Flächenschaden implementieren</t>
+  </si>
+  <si>
+    <t>Minimap</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>alpha Phase</t>
+  </si>
+  <si>
+    <t>beta Phase</t>
+  </si>
+  <si>
+    <t>Überarbeitung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -287,30 +305,6 @@
       <right style="thin">
         <color rgb="FF7F7F7F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
@@ -376,6 +370,19 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -389,14 +396,12 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
@@ -405,41 +410,43 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -466,16 +473,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -549,7 +551,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -584,7 +585,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -760,393 +760,429 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="162.85546875" customWidth="1"/>
+    <col min="3" max="3" width="142.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
+    <row r="2" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="7">
         <v>42150</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="7">
         <f>B3+1+F10</f>
         <v>42151</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
-        <f t="shared" ref="B5:B44" si="0">B4+1+F11</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="7">
+        <f t="shared" ref="B5:B13" si="0">B4+1+F11</f>
         <v>42152</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="7">
         <f t="shared" si="0"/>
         <v>42153</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>17</v>
+      <c r="C6" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="7">
         <f t="shared" si="0"/>
         <v>42154</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
+      <c r="C7" s="16"/>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="7">
         <f t="shared" si="0"/>
         <v>42155</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>42156</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="9">
+      <c r="C9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>42157</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6">
         <f>COUNTIF(D3:D44, "nein")</f>
         <v>0</v>
       </c>
-      <c r="G10" s="7" t="str">
+      <c r="G10" s="5" t="str">
         <f>IF(F10 = 1, "Tag", "Tage")</f>
         <v>Tage</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
+    <row r="11" spans="2:7">
+      <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>42158</v>
       </c>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="9">
+      <c r="C11" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>42159</v>
       </c>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
+      <c r="C12" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>42160</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
-        <f t="shared" si="0"/>
+      <c r="C13" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="12">
+        <f>B13+1+E20</f>
         <v>42161</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="12">
+        <f>B14+1+E21</f>
+        <v>42162</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="12">
+        <f>B15+1+E22</f>
+        <v>42163</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="12">
+        <f>B16+1+E23</f>
+        <v>42164</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="12">
+        <f>B17+1+E24</f>
+        <v>42165</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="12">
+        <f>B18+1+E25</f>
+        <v>42166</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="12">
+        <f>B19+1+E26</f>
+        <v>42167</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="12">
+        <f>B20+1+E27</f>
+        <v>42168</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="12">
+        <f>B21+1+E28</f>
+        <v>42169</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="12">
+        <f>B22+1+E29</f>
+        <v>42170</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="12">
+        <f>B23+1+E30</f>
+        <v>42171</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="12">
+        <f>B24+1+E31</f>
+        <v>42172</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="12">
+        <f>B25+1+E32</f>
+        <v>42173</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="12">
+        <f>B26+1+E33</f>
+        <v>42174</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="12">
+        <f>B27+1+E34</f>
+        <v>42175</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="12">
+        <f>B28+1+E35</f>
+        <v>42176</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="12">
+        <f>B29+1+E36</f>
+        <v>42177</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="12">
+        <f>B30+1+E37</f>
+        <v>42178</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="12">
+        <f>B31+1+E38</f>
+        <v>42179</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="12">
+        <f>B32+1+E39</f>
+        <v>42180</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="12">
+        <f>B33+1+E40</f>
+        <v>42181</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="12">
+        <f>B34+1+E41</f>
+        <v>42182</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
-        <f t="shared" si="0"/>
-        <v>42162</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="9">
-        <f t="shared" si="0"/>
-        <v>42163</v>
-      </c>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
-        <f t="shared" si="0"/>
-        <v>42164</v>
-      </c>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
-        <f t="shared" si="0"/>
-        <v>42165</v>
-      </c>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
-        <f t="shared" si="0"/>
-        <v>42166</v>
-      </c>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
-        <f t="shared" si="0"/>
-        <v>42167</v>
-      </c>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
-        <f t="shared" si="0"/>
-        <v>42168</v>
-      </c>
-      <c r="C21" s="15"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
-        <f t="shared" si="0"/>
-        <v>42169</v>
-      </c>
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
-        <f t="shared" si="0"/>
-        <v>42170</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
-        <f t="shared" si="0"/>
-        <v>42171</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="9">
-        <f t="shared" si="0"/>
-        <v>42172</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="9">
-        <f t="shared" si="0"/>
-        <v>42173</v>
-      </c>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
-        <f t="shared" si="0"/>
-        <v>42174</v>
-      </c>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="9">
-        <f t="shared" si="0"/>
-        <v>42175</v>
-      </c>
-      <c r="C28" s="18"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="9">
-        <f t="shared" si="0"/>
-        <v>42176</v>
-      </c>
-      <c r="C29" s="18"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="9">
-        <f t="shared" si="0"/>
-        <v>42177</v>
-      </c>
-      <c r="C30" s="18"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="9">
-        <f t="shared" si="0"/>
-        <v>42178</v>
-      </c>
-      <c r="C31" s="18"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="9">
-        <f t="shared" si="0"/>
-        <v>42179</v>
-      </c>
-      <c r="C32" s="18"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="9">
-        <f t="shared" si="0"/>
-        <v>42180</v>
-      </c>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="9">
-        <f t="shared" si="0"/>
-        <v>42181</v>
-      </c>
-      <c r="C34" s="18"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
-        <f t="shared" si="0"/>
-        <v>42182</v>
-      </c>
-      <c r="C35" s="18"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="9">
-        <f t="shared" si="0"/>
+    <row r="36" spans="2:3">
+      <c r="B36" s="12">
+        <f>B35+1+E42</f>
         <v>42183</v>
       </c>
-      <c r="C36" s="18"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="9">
-        <f t="shared" si="0"/>
+      <c r="C36" s="21"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="12">
+        <f>B36+1+E43</f>
         <v>42184</v>
       </c>
-      <c r="C37" s="18"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="9">
-        <f t="shared" si="0"/>
+      <c r="C37" s="21"/>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="12">
+        <f>B37+1+E44</f>
         <v>42185</v>
       </c>
-      <c r="C38" s="18"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="9">
-        <f t="shared" si="0"/>
+      <c r="C38" s="21"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="12">
+        <f>B38+1+E45</f>
         <v>42186</v>
       </c>
-      <c r="C39" s="18"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="9">
-        <f t="shared" si="0"/>
+      <c r="C39" s="21"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="12">
+        <f>B39+1+E46</f>
         <v>42187</v>
       </c>
-      <c r="C40" s="18"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="9">
-        <f t="shared" si="0"/>
+      <c r="C40" s="21"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="12">
+        <f>B40+1+E47</f>
         <v>42188</v>
       </c>
-      <c r="C41" s="18"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="9">
-        <f t="shared" si="0"/>
+      <c r="C41" s="21"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="12">
+        <f>B41+1+E48</f>
         <v>42189</v>
       </c>
-      <c r="C42" s="18"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="9">
-        <f t="shared" si="0"/>
+      <c r="C42" s="21"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="12">
+        <f>B42+1+E49</f>
         <v>42190</v>
       </c>
-      <c r="C43" s="19"/>
-    </row>
-    <row r="44" spans="2:3" ht="92.25" x14ac:dyDescent="0.25">
-      <c r="B44" s="10">
-        <f t="shared" si="0"/>
+      <c r="C43" s="22"/>
+    </row>
+    <row r="44" spans="2:3" ht="92.25">
+      <c r="B44" s="8">
+        <f>B43+1+E50</f>
         <v>42191</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>7</v>
+      <c r="C44" s="19" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C15:C22"/>
-    <mergeCell ref="C25:C43"/>
     <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C35:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D44">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="nein">
@@ -1162,24 +1198,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
